--- a/utilities/costs_projects=6.xlsx
+++ b/utilities/costs_projects=6.xlsx
@@ -468,22 +468,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3804</v>
+        <v>4833</v>
       </c>
       <c r="B2" t="n">
-        <v>2762</v>
+        <v>3670</v>
       </c>
       <c r="C2" t="n">
-        <v>3462</v>
+        <v>4009</v>
       </c>
       <c r="D2" t="n">
-        <v>2237</v>
+        <v>3907</v>
       </c>
       <c r="E2" t="n">
-        <v>3157</v>
+        <v>4595</v>
       </c>
       <c r="F2" t="n">
-        <v>2343</v>
+        <v>4457</v>
       </c>
     </row>
   </sheetData>
